--- a/story/主线剧情/main/level_main_07-05_beg.xlsx
+++ b/story/主线剧情/main/level_main_07-05_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="481">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -982,6 +985,478 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ロスモンティス"]  憶えていたくないの。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chernobog Underground Base
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Were you waiting for me here?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It took me a long time to find you.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’ll begin the operation after we finish collecting all the environmental information. Before that, it’ll benefit you to hear exactly what’s going on inside Chernobog’s core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya’s a bit tied up on the scene, so she won’t be able to join this discussion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You’ve already read the information in the mission briefing, but that kind of information is not good enough for a mind like yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Did you finally realize that you need me?;......;I’m glad you see me as more than a simple battlefield commander.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If the worst comes to pass, I don’t want you to sacrifice yourself while still not knowing a single thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you’ve taken interest in some part of me, you can just come out and say it. No need to stare so much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You might not remember, but I do. I remember you had quite a talent for heating up rations by pouring boiling water directly into your mouth at four in the morning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you don’t believe me, you can try for yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But skip the chatter. We don’t have much time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island and the L.G.D. worked together to take down Reunion, and neutralized the forces controlled by Mephisto and Crownslayer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  After that, Reunion’s deployments in Lungmen fell apart completely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya reported to me that you had a difficult fight with a “FrostNova,” an Infected serving Reunion as leader of a special squad, at the bottom of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The battle ended in your victory.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="There was no victor.;No.;I wouldn’t call that a victory.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I understand. According to the data from PRTS, you had the cooperation of our operators when you brought the enemy’s body back to Rhodes Island for treatment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I don’t consider her an enemy.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, “distinguish your friends from your foes.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...No. You might get the wrong idea, but you must hear me out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="......?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I am not trying to blame you, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya told me what happened between you and the enemy commander. Only those who were there at the time had the information to decide what to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I don’t have the right to overreach and criticize your judgment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You tried to understand the motives of that Infected. You were willing to bear the consequences for the things she, FrostNova, did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That is what you did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you plan to use this method to make sense of the suffering in this world, I have no reason to blame you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I am even willing to vouch for you before the operators of Rhodes Island. Dr. {@nickname}, make your own decisions, and I will try not to interfere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  After that, I will determine the part of the responsibility that belongs to Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Your powers and responsibilities compliment one another. “Distinguish your enemies from your friends.” Those are your words, not mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Whispers) If you really want to breathe as one...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You’re actually... siding with me?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I never said that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  More accurately, FrostNova and her Yeti Squad were a guerilla team of elite Infected. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right now, there are still two elite forces that Reunion is still able to mobilize. These guerilla warriors are the first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The second is the Sarkaz mercenary, W, and her team of sellswords.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  According to my intel, W used some underhanded tactics to seize leadership of the Sarkaz mercenaries working with Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We don’t have time to go over what should be common historical knowledge, but let me say this frankly — Sarkaz mercenaries are unreliable, a problem W faces just as much as Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Sarkaz mercenaries are unlike normal agency mercenaries. They are the overflowing military might of Kazdel, spilling out across the land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Trying to control them is an act of folly. It will only anger the forces backing them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You seem to have a pretty deep understanding of the Sarkaz.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I haven’t even gotten to the important part.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The point is, the Infected guerrillas of Yeti Squad are completely different from the Sarkaz mercenaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There are no similarities between them in terms of their form, organization, behavior, or creed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Before joining Reunion’s ranks, they were an independent guerrilla force of Infected, and their prestige was even greater among certain groups of Infected than that of Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...And before they formed this guerrilla force, they used to be a part of the mighty Ursus military.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The Guerrillas of the Northwestern Tundra?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m not sure where you learned that piece of information, Doctor, but I color me impressed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Though that piece of information itself is fairly basic, I am relieved that you’re able to proactively gather intel on your own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You just had to tack that bit onto the end...;......;Why does it feel like you’re poking fun at me?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I only give what you deserve.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’ve arrived at the foundations of the industrial sector at Chernobog’s core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Next, we’ll lead three teams through the complex underground passages, take the sewer pipes into the industrial layer, and come up in the heart of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Be aware that any enemies you see patrolling these areas are not the ordinary Reunion thugs you’re used to fighting.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We will meet rigorously trained... “soldiers.” Reunion’s “soldiers,” trained in the tactics of Ursus’s own army by the guerrillas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our recon operators discovered that communication networks have been forcefully cut off within the core city. Rather, it seems that Reunion didn’t even try to maintain these channels.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This is a severe constraint upon modern-day squads who rely on the most common modes of communication.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What this means is Reunion either already has some special way of communicating, or they simply aren’t prepared to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Based on what we saw in Chernobog a month ago, don’t expect that second scenario. However, if communication is cut off, the lower-ranking Reunion members won’t receive direct commands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Most of the time, expect them to act independently.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I fear they won’t know signals they cannot receive— a signal that only countries and city-states can distinguish. One that marks the territory of Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  A terrible storm is brewing within this city. Chaos, whether caused accidentally or deliberately, will permeate everywhere like thick smoke.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  They’re a step ahead of me, and the seeds of ruin have already been sown.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What’s your conclusion?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Conflict is brewing within Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="How are you so sure?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’ve seen the same thing unfold countless of times across this land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Is there something you’re not telling me?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’ve said pretty much everything I needed to say. As for the rest, we’ll cross those bridges when we get to them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if we’re still just preparing for war, efficiency still matters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Please help me notify the members of Team R-4, Doctor. Have them take these devices.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Hold on...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Is there a problem?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Don’t these belong to Rosmontis?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You seem to know more about Rosmontis than the conversation you had in the bioprocessing unit indicated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I saw her getting ready to fight.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Never expected she’d have the power to use a device like this.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Every elite operator has a considerable amount of strength. We expect them to take charge. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...So, you haven’t had the time to understand how Rosmontis fights.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But just to get this out of the way, there are some things they should not be shouldering alone. As a field commander, a necessary part of your job is to help relieve the pressure on these operators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In this upcoming battle, you may make some shocking discoveries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Huh...?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Very few people aren’t shocked after watching Rosmontis fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Make sure you’re ready for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Dr. {@nickname}, you’re here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  We intercepted an enemy patrol squad, steadily handling the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Has the fighting started already?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor, your position there is kinda risky...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I think you’ll probably want to move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I just got here.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Right there... Behind you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor, it’s really dangerous to stand next to her!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ...Enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What do you mean...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...Rosmontis?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor, those are the ones who killed my family... Enemies!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Where did this rage come from?;......?;Rosmontis, what happened...", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor, step aside. Get out of the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’m not like Amiya. Amiya’s Arts can go around her friends to strike her enemies...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But not me. I can’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  So don’t stand between me and my fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Gyaaah!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  That girl, the one carrying that box... Wh-what’s going on...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  What’s wrong with my eyes? I can’t see anything! My eyes! My face!! It hurts! It hurts!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Something’s crushing my head!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  No.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  It’s been a long time since I’ve crushed anyone to death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Those swords... Those swords!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Rosmontis?!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Reunion. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I don’t want you in my memories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Any of you.
 </t>
   </si>
   <si>
@@ -1816,13 +2291,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1832,1347 +2307,1716 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>245</v>
+      </c>
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>246</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
+      <c r="D34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" t="s">
+        <v>277</v>
+      </c>
+      <c r="D36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
+      <c r="D46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>288</v>
+      </c>
+      <c r="D47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" t="s">
+        <v>296</v>
+      </c>
+      <c r="D55" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>299</v>
+      </c>
+      <c r="D58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>180</v>
+      </c>
+      <c r="C59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>309</v>
+      </c>
+      <c r="D68" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>310</v>
+      </c>
+      <c r="D69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" t="s">
+        <v>311</v>
+      </c>
+      <c r="D70" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
+        <v>312</v>
+      </c>
+      <c r="D71" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" t="s">
+        <v>313</v>
+      </c>
+      <c r="D72" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>317</v>
+      </c>
+      <c r="D76" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>198</v>
+      </c>
+      <c r="C77" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>202</v>
+      </c>
+      <c r="C81" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C51" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
-      </c>
-      <c r="C52" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>181</v>
-      </c>
-      <c r="C61" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c r="C65" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>189</v>
-      </c>
-      <c r="C69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C73" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>196</v>
-      </c>
-      <c r="C76" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>197</v>
-      </c>
-      <c r="C77" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>322</v>
+      </c>
+      <c r="D82" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>324</v>
+      </c>
+      <c r="D84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>325</v>
+      </c>
+      <c r="D85" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C86" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>326</v>
+      </c>
+      <c r="D86" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>327</v>
+      </c>
+      <c r="D87" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>328</v>
+      </c>
+      <c r="D88" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>329</v>
+      </c>
+      <c r="D89" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C90" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>330</v>
+      </c>
+      <c r="D90" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>331</v>
+      </c>
+      <c r="D91" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>332</v>
+      </c>
+      <c r="D92" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>333</v>
+      </c>
+      <c r="D93" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>334</v>
+      </c>
+      <c r="D94" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>335</v>
+      </c>
+      <c r="D95" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C96" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>337</v>
+      </c>
+      <c r="D97" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>338</v>
+      </c>
+      <c r="D98" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>339</v>
+      </c>
+      <c r="D99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>340</v>
+      </c>
+      <c r="D100" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>341</v>
+      </c>
+      <c r="D101" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>342</v>
+      </c>
+      <c r="D102" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>343</v>
+      </c>
+      <c r="D103" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>344</v>
+      </c>
+      <c r="D104" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>345</v>
+      </c>
+      <c r="D105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>346</v>
+      </c>
+      <c r="D106" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>347</v>
+      </c>
+      <c r="D107" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>348</v>
+      </c>
+      <c r="D108" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>349</v>
+      </c>
+      <c r="D109" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>350</v>
+      </c>
+      <c r="D110" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>113</v>
+      </c>
+      <c r="D111" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C115" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>346</v>
+      </c>
+      <c r="D116" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C117" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C120" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C121" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
         <v>361</v>
+      </c>
+      <c r="D123" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
